--- a/dados/DadosAula06.xlsx
+++ b/dados/DadosAula06.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fd8dadff45c8312/obsidian/adsantos/Mestrado/BD/trabalhos/caderno-bd/dados/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{E2DBA047-3E7A-441D-B3AD-C9D27C2F5D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="80" windowWidth="18880" windowHeight="7340" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HOUSE_PRICE" sheetId="2" r:id="rId1"/>
@@ -12,7 +18,21 @@
     <sheet name="SALES_X_YOUTUBE" sheetId="1" r:id="rId3"/>
     <sheet name="CREDIT SCORE X RENDA E OUTRAS V" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -130,7 +150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -615,54 +635,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -685,7 +708,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -756,7 +785,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -811,9 +846,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -851,9 +886,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -886,9 +921,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -921,9 +973,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1096,19 +1165,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1116,7 +1185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>245</v>
       </c>
@@ -1133,7 +1202,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
@@ -1147,7 +1216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>279</v>
       </c>
@@ -1155,7 +1224,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>308</v>
       </c>
@@ -1163,7 +1232,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>199</v>
       </c>
@@ -1171,7 +1240,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>219</v>
       </c>
@@ -1179,7 +1248,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>405</v>
       </c>
@@ -1187,7 +1256,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>324</v>
       </c>
@@ -1195,7 +1264,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -1203,7 +1272,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>255</v>
       </c>
@@ -1217,26 +1286,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="Z1" sqref="Z1:AB1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:25" x14ac:dyDescent="0.3">
       <c r="M3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:25" x14ac:dyDescent="0.3">
       <c r="P4" t="s">
         <v>24</v>
       </c>
@@ -1265,7 +1334,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:25" x14ac:dyDescent="0.3">
       <c r="P5">
         <v>1982</v>
       </c>
@@ -1294,7 +1363,7 @@
         <v>3129.7061892050833</v>
       </c>
     </row>
-    <row r="6" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:25" x14ac:dyDescent="0.3">
       <c r="P6">
         <f>P5+1</f>
         <v>1983</v>
@@ -1324,7 +1393,7 @@
         <v>3258.0284970345674</v>
       </c>
     </row>
-    <row r="7" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:25" x14ac:dyDescent="0.3">
       <c r="P7">
         <f t="shared" ref="P7:P19" si="0">P6+1</f>
         <v>1984</v>
@@ -1354,7 +1423,7 @@
         <v>3493.8534447983707</v>
       </c>
     </row>
-    <row r="8" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:25" x14ac:dyDescent="0.3">
       <c r="P8">
         <f t="shared" si="0"/>
         <v>1985</v>
@@ -1384,7 +1453,7 @@
         <v>3622.6873946489663</v>
       </c>
     </row>
-    <row r="9" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:25" x14ac:dyDescent="0.3">
       <c r="P9">
         <f t="shared" si="0"/>
         <v>1986</v>
@@ -1414,7 +1483,7 @@
         <v>3738.202950314625</v>
       </c>
     </row>
-    <row r="10" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:25" x14ac:dyDescent="0.3">
       <c r="P10">
         <f t="shared" si="0"/>
         <v>1987</v>
@@ -1444,7 +1513,7 @@
         <v>3852.1915400273215</v>
       </c>
     </row>
-    <row r="11" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:25" x14ac:dyDescent="0.3">
       <c r="P11">
         <f t="shared" si="0"/>
         <v>1988</v>
@@ -1474,7 +1543,7 @@
         <v>4004.4075202393788</v>
       </c>
     </row>
-    <row r="12" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:25" x14ac:dyDescent="0.3">
       <c r="P12">
         <f t="shared" si="0"/>
         <v>1989</v>
@@ -1504,7 +1573,7 @@
         <v>4143.5421354744458</v>
       </c>
     </row>
-    <row r="13" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:25" x14ac:dyDescent="0.3">
       <c r="P13">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1534,7 +1603,7 @@
         <v>4196.1344021067607</v>
       </c>
     </row>
-    <row r="14" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:25" x14ac:dyDescent="0.3">
       <c r="P14">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -1564,7 +1633,7 @@
         <v>4155.8553981166333</v>
       </c>
     </row>
-    <row r="15" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:25" x14ac:dyDescent="0.3">
       <c r="P15">
         <f>P14+1</f>
         <v>1992</v>
@@ -1594,7 +1663,7 @@
         <v>4272.7128433901225</v>
       </c>
     </row>
-    <row r="16" spans="3:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:25" x14ac:dyDescent="0.3">
       <c r="P16">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -1624,7 +1693,7 @@
         <v>4375.6856842927345</v>
       </c>
     </row>
-    <row r="17" spans="16:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="16:25" x14ac:dyDescent="0.3">
       <c r="P17">
         <f t="shared" si="0"/>
         <v>1994</v>
@@ -1654,7 +1723,7 @@
         <v>4532.7258575668793</v>
       </c>
     </row>
-    <row r="18" spans="16:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="16:25" x14ac:dyDescent="0.3">
       <c r="P18">
         <f>P17+1</f>
         <v>1995</v>
@@ -1684,7 +1753,7 @@
         <v>4626.1871130939244</v>
       </c>
     </row>
-    <row r="19" spans="16:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="16:25" x14ac:dyDescent="0.3">
       <c r="P19">
         <f t="shared" si="0"/>
         <v>1996</v>
@@ -1721,16 +1790,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1744,7 +1813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1764,7 +1833,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1787,7 +1856,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1810,7 +1879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1827,7 +1896,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1844,7 +1913,7 @@
         <v>15.48</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1861,7 +1930,7 @@
         <v>8.64</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1878,7 +1947,7 @@
         <v>14.16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1895,7 +1964,7 @@
         <v>15.84</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1912,7 +1981,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1929,7 +1998,7 @@
         <v>12.72</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1946,7 +2015,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1963,7 +2032,7 @@
         <v>20.88</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1980,7 +2049,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1997,7 +2066,7 @@
         <v>11.64</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2014,7 +2083,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2031,7 +2100,7 @@
         <v>26.88</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2048,7 +2117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2065,7 +2134,7 @@
         <v>29.28</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2082,7 +2151,7 @@
         <v>13.56</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2099,7 +2168,7 @@
         <v>17.52</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2116,7 +2185,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2133,7 +2202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2150,7 +2219,7 @@
         <v>6.72</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2167,7 +2236,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2184,7 +2253,7 @@
         <v>11.64</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2201,7 +2270,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2218,7 +2287,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2235,7 +2304,7 @@
         <v>19.079999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2252,7 +2321,7 @@
         <v>22.68</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2269,7 +2338,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2286,7 +2355,7 @@
         <v>25.68</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2303,7 +2372,7 @@
         <v>14.28</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2320,7 +2389,7 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2337,7 +2406,7 @@
         <v>20.88</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2354,7 +2423,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2371,7 +2440,7 @@
         <v>15.36</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2388,7 +2457,7 @@
         <v>30.48</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2405,7 +2474,7 @@
         <v>17.64</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2422,7 +2491,7 @@
         <v>12.12</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2439,7 +2508,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2456,7 +2525,7 @@
         <v>19.920000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2473,7 +2542,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2490,7 +2559,7 @@
         <v>24.84</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2507,7 +2576,7 @@
         <v>15.48</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2524,7 +2593,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2541,7 +2610,7 @@
         <v>17.88</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2558,7 +2627,7 @@
         <v>12.72</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2575,7 +2644,7 @@
         <v>27.84</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2592,7 +2661,7 @@
         <v>17.760000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2609,7 +2678,7 @@
         <v>11.64</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2626,7 +2695,7 @@
         <v>13.68</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2643,7 +2712,7 @@
         <v>12.84</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2660,7 +2729,7 @@
         <v>27.12</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2677,7 +2746,7 @@
         <v>25.44</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2694,7 +2763,7 @@
         <v>24.24</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2711,7 +2780,7 @@
         <v>28.44</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2728,7 +2797,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2745,7 +2814,7 @@
         <v>15.84</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2762,7 +2831,7 @@
         <v>28.56</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2779,7 +2848,7 @@
         <v>22.08</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2796,7 +2865,7 @@
         <v>9.7200000000000006</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2813,7 +2882,7 @@
         <v>29.04</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2830,7 +2899,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2847,7 +2916,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2864,7 +2933,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2881,7 +2950,7 @@
         <v>11.16</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2898,7 +2967,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2915,7 +2984,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2932,7 +3001,7 @@
         <v>22.68</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2949,7 +3018,7 @@
         <v>26.76</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2966,7 +3035,7 @@
         <v>21.96</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2983,7 +3052,7 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3000,7 +3069,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3017,7 +3086,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3034,7 +3103,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3051,7 +3120,7 @@
         <v>10.44</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3068,7 +3137,7 @@
         <v>8.2799999999999994</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3085,7 +3154,7 @@
         <v>17.04</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3102,7 +3171,7 @@
         <v>6.36</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3119,7 +3188,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3136,7 +3205,7 @@
         <v>14.16</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3153,7 +3222,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3170,7 +3239,7 @@
         <v>13.56</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3187,7 +3256,7 @@
         <v>16.32</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3204,7 +3273,7 @@
         <v>26.04</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3221,7 +3290,7 @@
         <v>18.239999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3238,7 +3307,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3255,7 +3324,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3272,7 +3341,7 @@
         <v>15.48</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3289,7 +3358,7 @@
         <v>20.04</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3306,7 +3375,7 @@
         <v>13.44</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3323,7 +3392,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3340,7 +3409,7 @@
         <v>23.28</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3357,7 +3426,7 @@
         <v>26.64</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3374,7 +3443,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3391,7 +3460,7 @@
         <v>20.28</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3408,7 +3477,7 @@
         <v>14.04</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3425,7 +3494,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3442,7 +3511,7 @@
         <v>30.48</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3459,7 +3528,7 @@
         <v>20.64</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3476,7 +3545,7 @@
         <v>14.04</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3493,7 +3562,7 @@
         <v>28.56</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3510,7 +3579,7 @@
         <v>17.760000000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3527,7 +3596,7 @@
         <v>17.64</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3544,7 +3613,7 @@
         <v>24.84</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3561,7 +3630,7 @@
         <v>23.04</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3578,7 +3647,7 @@
         <v>8.64</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3595,7 +3664,7 @@
         <v>10.44</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3612,7 +3681,7 @@
         <v>6.36</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3629,7 +3698,7 @@
         <v>23.76</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3646,7 +3715,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3663,7 +3732,7 @@
         <v>26.16</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3680,7 +3749,7 @@
         <v>16.920000000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3697,7 +3766,7 @@
         <v>19.079999999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3714,7 +3783,7 @@
         <v>17.52</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3731,7 +3800,7 @@
         <v>15.12</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3748,7 +3817,7 @@
         <v>14.64</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3765,7 +3834,7 @@
         <v>11.28</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3782,7 +3851,7 @@
         <v>19.079999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3799,7 +3868,7 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3816,7 +3885,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3833,7 +3902,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3850,7 +3919,7 @@
         <v>13.92</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3867,7 +3936,7 @@
         <v>18.239999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3884,7 +3953,7 @@
         <v>23.64</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3901,7 +3970,7 @@
         <v>12.72</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3918,7 +3987,7 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3935,7 +4004,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3952,7 +4021,7 @@
         <v>29.64</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3969,7 +4038,7 @@
         <v>11.64</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3986,7 +4055,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4003,7 +4072,7 @@
         <v>15.24</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4020,7 +4089,7 @@
         <v>6.84</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4037,7 +4106,7 @@
         <v>23.52</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4054,7 +4123,7 @@
         <v>12.96</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4071,7 +4140,7 @@
         <v>13.92</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4088,7 +4157,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4105,7 +4174,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4122,7 +4191,7 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4139,7 +4208,7 @@
         <v>24.84</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4156,7 +4225,7 @@
         <v>13.08</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4173,7 +4242,7 @@
         <v>23.04</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4190,7 +4259,7 @@
         <v>24.12</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4207,7 +4276,7 @@
         <v>12.48</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4224,7 +4293,7 @@
         <v>13.68</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4241,7 +4310,7 @@
         <v>12.36</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4258,7 +4327,7 @@
         <v>15.84</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4275,7 +4344,7 @@
         <v>30.48</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4292,7 +4361,7 @@
         <v>13.08</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4309,7 +4378,7 @@
         <v>12.12</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4326,7 +4395,7 @@
         <v>19.32</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4343,7 +4412,7 @@
         <v>13.92</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4360,7 +4429,7 @@
         <v>19.920000000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4377,7 +4446,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4394,7 +4463,7 @@
         <v>18.72</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4411,7 +4480,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4428,7 +4497,7 @@
         <v>18.36</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4445,7 +4514,7 @@
         <v>12.12</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4462,7 +4531,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4479,7 +4548,7 @@
         <v>15.48</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4496,7 +4565,7 @@
         <v>17.28</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4513,7 +4582,7 @@
         <v>15.96</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4530,7 +4599,7 @@
         <v>17.88</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4547,7 +4616,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4564,7 +4633,7 @@
         <v>14.28</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4581,7 +4650,7 @@
         <v>14.28</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4598,7 +4667,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4615,7 +4684,7 @@
         <v>14.64</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4632,7 +4701,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4649,7 +4718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4666,7 +4735,7 @@
         <v>10.08</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4683,7 +4752,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4700,7 +4769,7 @@
         <v>9.1199999999999992</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4717,7 +4786,7 @@
         <v>14.04</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4734,7 +4803,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4751,7 +4820,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4768,7 +4837,7 @@
         <v>24.24</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4785,7 +4854,7 @@
         <v>14.04</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4802,7 +4871,7 @@
         <v>14.16</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -4819,7 +4888,7 @@
         <v>15.12</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4836,7 +4905,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -4853,7 +4922,7 @@
         <v>14.64</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -4870,7 +4939,7 @@
         <v>10.44</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -4887,7 +4956,7 @@
         <v>31.44</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -4904,7 +4973,7 @@
         <v>21.12</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -4921,7 +4990,7 @@
         <v>27.12</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -4938,7 +5007,7 @@
         <v>12.36</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -4955,7 +5024,7 @@
         <v>20.76</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -4972,7 +5041,7 @@
         <v>19.079999999999998</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -4989,7 +5058,7 @@
         <v>8.0399999999999991</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -5006,7 +5075,7 @@
         <v>12.96</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -5023,7 +5092,7 @@
         <v>11.88</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -5040,7 +5109,7 @@
         <v>7.08</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -5057,7 +5126,7 @@
         <v>23.52</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -5074,7 +5143,7 @@
         <v>20.76</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -5091,7 +5160,7 @@
         <v>9.1199999999999992</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -5108,7 +5177,7 @@
         <v>11.64</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -5125,7 +5194,7 @@
         <v>15.36</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -5142,7 +5211,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -5165,19 +5234,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AA93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="16" max="16" width="17.7265625" customWidth="1"/>
+    <col min="16" max="16" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.3">
       <c r="S1" t="s">
         <v>9</v>
       </c>
@@ -5203,7 +5272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -5235,7 +5304,7 @@
         <v>0.97073468639966665</v>
       </c>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="N3" t="s">
         <v>20</v>
       </c>
@@ -5268,7 +5337,7 @@
         <v>0.99514309177326987</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
       <c r="N4" t="s">
         <v>8</v>
       </c>
@@ -5304,7 +5373,7 @@
         <v>0.51466273854670608</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="N5" t="s">
         <v>10</v>
       </c>
@@ -5343,7 +5412,7 @@
         <v>0.93579680306671964</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="N6" t="s">
         <v>12</v>
       </c>
@@ -5382,7 +5451,7 @@
         <v>0.46067976894552948</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
       <c r="N7" t="s">
         <v>14</v>
       </c>
@@ -5421,7 +5490,7 @@
         <v>2.5624338414527409E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
       <c r="R8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5451,7 +5520,7 @@
         <v>0.85899603717668538</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="R9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5481,7 +5550,7 @@
         <v>0.22629001266455473</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="R10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5511,7 +5580,7 @@
         <v>0.97926540547045238</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
       <c r="R11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5541,7 +5610,7 @@
         <v>0.99219011997186202</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="R12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5571,7 +5640,7 @@
         <v>0.99565535045021147</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="R13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5601,7 +5670,7 @@
         <v>9.6798986338250501E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="R14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5631,7 +5700,7 @@
         <v>0.34194971291691678</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
       <c r="R15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5661,7 +5730,7 @@
         <v>1.6131197066441814E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="R16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5691,7 +5760,7 @@
         <v>6.2749495142376502E-2</v>
       </c>
     </row>
-    <row r="17" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5721,7 +5790,7 @@
         <v>0.76931999654909655</v>
       </c>
     </row>
-    <row r="18" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5751,7 +5820,7 @@
         <v>0.99463527234777849</v>
       </c>
     </row>
-    <row r="19" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5781,7 +5850,7 @@
         <v>0.99885940149452479</v>
       </c>
     </row>
-    <row r="20" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5811,7 +5880,7 @@
         <v>0.12916862034852572</v>
       </c>
     </row>
-    <row r="21" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5841,7 +5910,7 @@
         <v>2.5624338414527409E-2</v>
       </c>
     </row>
-    <row r="22" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5871,7 +5940,7 @@
         <v>0.73765620590975667</v>
       </c>
     </row>
-    <row r="23" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5901,7 +5970,7 @@
         <v>0.81207550041874133</v>
       </c>
     </row>
-    <row r="24" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5931,7 +6000,7 @@
         <v>0.99858320559376956</v>
       </c>
     </row>
-    <row r="25" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5961,7 +6030,7 @@
         <v>2.0971976539146803E-2</v>
       </c>
     </row>
-    <row r="26" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5991,7 +6060,7 @@
         <v>0.95404588567491566</v>
       </c>
     </row>
-    <row r="27" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6021,7 +6090,7 @@
         <v>0.82532565578739403</v>
       </c>
     </row>
-    <row r="28" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6051,7 +6120,7 @@
         <v>0.9845242576785147</v>
       </c>
     </row>
-    <row r="29" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6081,7 +6150,7 @@
         <v>6.1202172032154875E-2</v>
       </c>
     </row>
-    <row r="30" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="30" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6111,7 +6180,7 @@
         <v>4.8957078175337947E-2</v>
       </c>
     </row>
-    <row r="31" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6141,7 +6210,7 @@
         <v>8.6190546834467918E-2</v>
       </c>
     </row>
-    <row r="32" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="32" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6171,7 +6240,7 @@
         <v>0.92142521585242931</v>
       </c>
     </row>
-    <row r="33" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="33" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6201,7 +6270,7 @@
         <v>0.996186829038754</v>
       </c>
     </row>
-    <row r="34" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="34" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -6231,7 +6300,7 @@
         <v>0.92967465563617613</v>
       </c>
     </row>
-    <row r="35" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="35" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -6261,7 +6330,7 @@
         <v>0.97073468639966665</v>
       </c>
     </row>
-    <row r="36" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="36" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -6291,7 +6360,7 @@
         <v>7.6817932284528032E-2</v>
       </c>
     </row>
-    <row r="37" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="37" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -6321,7 +6390,7 @@
         <v>6.96077193442632E-2</v>
       </c>
     </row>
-    <row r="38" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="38" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -6351,7 +6420,7 @@
         <v>0.96669560726860237</v>
       </c>
     </row>
-    <row r="39" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="39" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6381,7 +6450,7 @@
         <v>2.8644231735286529E-2</v>
       </c>
     </row>
-    <row r="40" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="40" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6411,7 +6480,7 @@
         <v>0.68493320737005359</v>
       </c>
     </row>
-    <row r="41" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="41" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6441,7 +6510,7 @@
         <v>0.83042690387197016</v>
       </c>
     </row>
-    <row r="42" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="42" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6471,7 +6540,7 @@
         <v>0.99395489231440781</v>
       </c>
     </row>
-    <row r="43" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="43" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -6501,7 +6570,7 @@
         <v>0.41276979050605384</v>
       </c>
     </row>
-    <row r="44" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="44" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -6531,7 +6600,7 @@
         <v>0.17492019923588087</v>
       </c>
     </row>
-    <row r="45" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="45" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -6561,7 +6630,7 @@
         <v>0.59514094287988839</v>
       </c>
     </row>
-    <row r="46" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="46" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -6591,7 +6660,7 @@
         <v>0.95824690695872816</v>
       </c>
     </row>
-    <row r="47" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="47" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -6621,7 +6690,7 @@
         <v>0.97359194139682881</v>
       </c>
     </row>
-    <row r="48" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="48" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -6651,7 +6720,7 @@
         <v>0.96969967082947994</v>
       </c>
     </row>
-    <row r="49" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="49" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -6681,7 +6750,7 @@
         <v>0.98363274316076232</v>
       </c>
     </row>
-    <row r="50" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="50" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -6711,7 +6780,7 @@
         <v>0.99818016994771952</v>
       </c>
     </row>
-    <row r="51" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="51" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -6741,7 +6810,7 @@
         <v>0.82532565578739403</v>
       </c>
     </row>
-    <row r="52" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="52" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -6771,7 +6840,7 @@
         <v>0.15960965468712709</v>
       </c>
     </row>
-    <row r="53" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="53" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -6801,7 +6870,7 @@
         <v>3.9011597513761757E-2</v>
       </c>
     </row>
-    <row r="54" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="54" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -6831,7 +6900,7 @@
         <v>0.11631821668079974</v>
       </c>
     </row>
-    <row r="55" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="55" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -6861,7 +6930,7 @@
         <v>4.4416138195878196E-2</v>
       </c>
     </row>
-    <row r="56" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="56" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -6891,7 +6960,7 @@
         <v>0.82532565578739403</v>
       </c>
     </row>
-    <row r="57" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="57" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -6921,7 +6990,7 @@
         <v>0.92660756807420297</v>
       </c>
     </row>
-    <row r="58" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="58" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -6951,7 +7020,7 @@
         <v>0.1969052571697425</v>
       </c>
     </row>
-    <row r="59" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="59" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -6981,7 +7050,7 @@
         <v>0.1969052571697425</v>
       </c>
     </row>
-    <row r="60" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="60" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -7011,7 +7080,7 @@
         <v>0.95824690695872816</v>
       </c>
     </row>
-    <row r="61" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="61" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -7041,7 +7110,7 @@
         <v>0.35062519720344282</v>
       </c>
     </row>
-    <row r="62" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="62" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -7071,7 +7140,7 @@
         <v>0.22167823941536793</v>
       </c>
     </row>
-    <row r="63" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="63" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -7101,7 +7170,7 @@
         <v>0.1741686924414739</v>
       </c>
     </row>
-    <row r="64" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="64" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -7131,7 +7200,7 @@
         <v>0.36628850454560458</v>
       </c>
     </row>
-    <row r="65" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="65" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -7161,7 +7230,7 @@
         <v>0.99531317862525592</v>
       </c>
     </row>
-    <row r="66" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="66" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -7191,7 +7260,7 @@
         <v>0.27823898685208209</v>
       </c>
     </row>
-    <row r="67" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="67" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -7221,7 +7290,7 @@
         <v>6.1202172032154875E-2</v>
       </c>
     </row>
-    <row r="68" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="68" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R68">
         <f t="shared" ref="R68:R93" si="1">R67+1</f>
         <v>67</v>
@@ -7251,7 +7320,7 @@
         <v>0.98074825215362316</v>
       </c>
     </row>
-    <row r="69" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="69" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R69">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -7281,7 +7350,7 @@
         <v>0.7411666474689198</v>
       </c>
     </row>
-    <row r="70" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="70" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R70">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -7311,7 +7380,7 @@
         <v>0.92142521585242931</v>
       </c>
     </row>
-    <row r="71" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="71" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -7341,7 +7410,7 @@
         <v>6.8178264954167164E-2</v>
       </c>
     </row>
-    <row r="72" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="72" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -7371,7 +7440,7 @@
         <v>0.76341841694826462</v>
       </c>
     </row>
-    <row r="73" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="73" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -7401,7 +7470,7 @@
         <v>0.99818016994771952</v>
       </c>
     </row>
-    <row r="74" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="74" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -7431,7 +7500,7 @@
         <v>0.99514309177326987</v>
       </c>
     </row>
-    <row r="75" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="75" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R75">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -7461,7 +7530,7 @@
         <v>0.27275994265607573</v>
       </c>
     </row>
-    <row r="76" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="76" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R76">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -7491,7 +7560,7 @@
         <v>0.79187256991914778</v>
       </c>
     </row>
-    <row r="77" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="77" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R77">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -7521,7 +7590,7 @@
         <v>0.65336526516988602</v>
       </c>
     </row>
-    <row r="78" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="78" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R78">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -7551,7 +7620,7 @@
         <v>0.15499044073546128</v>
       </c>
     </row>
-    <row r="79" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="79" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R79">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -7581,7 +7650,7 @@
         <v>2.5624338414527409E-2</v>
       </c>
     </row>
-    <row r="80" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="80" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R80">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -7611,7 +7680,7 @@
         <v>0.98074825215362316</v>
       </c>
     </row>
-    <row r="81" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="81" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R81">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -7641,7 +7710,7 @@
         <v>0.88596992763787985</v>
       </c>
     </row>
-    <row r="82" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="82" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R82">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -7671,7 +7740,7 @@
         <v>0.97916556436530522</v>
       </c>
     </row>
-    <row r="83" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="83" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R83">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -7701,7 +7770,7 @@
         <v>0.8176562227924058</v>
       </c>
     </row>
-    <row r="84" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="84" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R84">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -7731,7 +7800,7 @@
         <v>0.15518858902833363</v>
       </c>
     </row>
-    <row r="85" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="85" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R85">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -7761,7 +7830,7 @@
         <v>4.8957078175337947E-2</v>
       </c>
     </row>
-    <row r="86" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="86" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R86">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -7791,7 +7860,7 @@
         <v>0.31377907191051574</v>
       </c>
     </row>
-    <row r="87" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="87" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R87">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -7821,7 +7890,7 @@
         <v>7.5693429302873833E-3</v>
       </c>
     </row>
-    <row r="88" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="88" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R88">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -7851,7 +7920,7 @@
         <v>0.62356322542514109</v>
       </c>
     </row>
-    <row r="89" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="89" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R89">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -7881,7 +7950,7 @@
         <v>0.99395489231440781</v>
       </c>
     </row>
-    <row r="90" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="90" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R90">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -7911,7 +7980,7 @@
         <v>0.92142521585242931</v>
       </c>
     </row>
-    <row r="91" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="91" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R91">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -7941,7 +8010,7 @@
         <v>6.96077193442632E-2</v>
       </c>
     </row>
-    <row r="92" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="92" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R92">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -7971,7 +8040,7 @@
         <v>0.92899348113808511</v>
       </c>
     </row>
-    <row r="93" spans="18:27" x14ac:dyDescent="0.35">
+    <row r="93" spans="18:27" x14ac:dyDescent="0.3">
       <c r="R93">
         <f t="shared" si="1"/>
         <v>92</v>
